--- a/matrixCompany2.xlsx
+++ b/matrixCompany2.xlsx
@@ -17,7 +17,7 @@
     <definedName function="false" hidden="false" name="BPOList" vbProcedure="false">'names and email'!#ref!</definedName>
     <definedName function="false" hidden="false" name="Domains" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="Email" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">OnHoliday!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">OnHoliday!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Roles!$A$1:$K$9</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Extract" vbProcedure="false">'Names and Email'!$B:$B</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Names and Email'!$A$1:$B$2</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
   <si>
     <t>Regular Approver</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Fill-In Approver</t>
   </si>
   <si>
-    <t>Fill-In Approver E-Mail Address</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>Approver FortyTwo</t>
   </si>
   <si>
-    <t>approver42@company2.com</t>
-  </si>
-  <si>
     <t>Role Name</t>
   </si>
   <si>
@@ -200,6 +194,9 @@
   </si>
   <si>
     <t>approver5@company2.com</t>
+  </si>
+  <si>
+    <t>approver42@company.com</t>
   </si>
 </sst>
 </file>
@@ -322,20 +319,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -428,25 +425,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="1:2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1023" min="5" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -459,24 +456,19 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="n">
+      <c r="C2" s="4" t="n">
         <v>42450</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="D2" s="4" t="n">
         <v>42731</v>
       </c>
     </row>
@@ -509,300 +501,300 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="43.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="41.7773279352227"/>
-    <col collapsed="false" hidden="false" max="10" min="5" style="1" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="42.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="5" style="1" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="7" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -822,80 +814,90 @@
     <tabColor rgb="FF000000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="38.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="39.4210526315789"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>

--- a/matrixCompany2.xlsx
+++ b/matrixCompany2.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="976" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OnHoliday" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Roles" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Names and Email" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="SingleApproverClients" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="BPOEmail" vbProcedure="false">'names and email'!#ref!</definedName>
@@ -32,171 +33,288 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
-  <si>
-    <t>Regular Approver</t>
-  </si>
-  <si>
-    <t>Fill-In Approver</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Approver Two</t>
-  </si>
-  <si>
-    <t>Approver FortyTwo</t>
-  </si>
-  <si>
-    <t>Role Name</t>
-  </si>
-  <si>
-    <t>Role Description</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Business Group</t>
-  </si>
-  <si>
-    <t>Role Owner - Global</t>
-  </si>
-  <si>
-    <t>Role Owner - Division 1 Global</t>
-  </si>
-  <si>
-    <t>Role Owner - Division 1 America</t>
-  </si>
-  <si>
-    <t>Role Owner - Division 1 Europe</t>
-  </si>
-  <si>
-    <t>Role Owner - Division 1 Asia</t>
-  </si>
-  <si>
-    <t>Role Owner - Division 2</t>
-  </si>
-  <si>
-    <t>Z:ABCD:SAAAAAA:CARL:D</t>
-  </si>
-  <si>
-    <t>Role Description 1 - Company 2</t>
-  </si>
-  <si>
-    <t>Division 1 America</t>
-  </si>
-  <si>
-    <t>Group 1</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Approver One</t>
-  </si>
-  <si>
-    <t>Z:HIJK:SAUSAAA:DAVE:C</t>
-  </si>
-  <si>
-    <t>Role Description 2 - Company 2</t>
-  </si>
-  <si>
-    <t>Group 2</t>
-  </si>
-  <si>
-    <t>Z:IJKL:QAUSHIA:CONN:A</t>
-  </si>
-  <si>
-    <t>Role Description 3 - Company 2</t>
-  </si>
-  <si>
-    <t>Division 2</t>
-  </si>
-  <si>
-    <t>Group 3</t>
-  </si>
-  <si>
-    <t>Approver Three</t>
-  </si>
-  <si>
-    <t>Z:MOPQ:SAUSMAA:REER:A</t>
-  </si>
-  <si>
-    <t>Role Description 4 - Company 2</t>
-  </si>
-  <si>
-    <t>Group 4</t>
-  </si>
-  <si>
-    <t>Approver Four</t>
-  </si>
-  <si>
-    <t>Z:MOPQ:SEINAWJ:AA05:B</t>
-  </si>
-  <si>
-    <t>Role Description 5 - Company 2 - Approver 4</t>
-  </si>
-  <si>
-    <t>Division 1 Europe</t>
-  </si>
-  <si>
-    <t>Z:PQRS:QAUSHIA:WWW_:A</t>
-  </si>
-  <si>
-    <t>Role Description 6 - Company 2 - Approver 1</t>
-  </si>
-  <si>
-    <t>Z:XXXX:XXXXXXX:AUST:D</t>
-  </si>
-  <si>
-    <t>Role Description 7 - Company 2 - Approver 5</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>Group 5</t>
-  </si>
-  <si>
-    <t>Approver Five</t>
-  </si>
-  <si>
-    <t>Z:XXXX:XXXXXXX:CHEN:D</t>
-  </si>
-  <si>
-    <t>Role Description 8 - Company 2 - Regional</t>
-  </si>
-  <si>
-    <t>Regional</t>
-  </si>
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>approver1@company2.com</t>
-  </si>
-  <si>
-    <t>approver2@company2.com</t>
-  </si>
-  <si>
-    <t>approver3@company2.com</t>
-  </si>
-  <si>
-    <t>approver4@company2.com</t>
-  </si>
-  <si>
-    <t>approver5@company2.com</t>
-  </si>
-  <si>
-    <t>approver42@company.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
+  <si>
+    <t xml:space="preserve">Regular Approver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill-In Approver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver FortyTwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Owner - Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Owner - Division 1 Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Owner - Division 1 America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Owner - Division 1 Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Owner - Division 1 Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Owner - Division 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z:ABCD:SAAAAAA:CARL:D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 1 - Company 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division 1 America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z:HIJK:SAUSAAA:DAVE:C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 2 - Company 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z:IJKL:QAUSHIA:CONN:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 3 - Company 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z:MOPQ:SAUSMAA:REER:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 4 - Company 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z:MOPQ:SEINAWJ:AA05:B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 5 - Company 2 - Approver 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division 1 Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z:PQRS:QAUSHIA:WWW_:A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 6 - Company 2 - Approver 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z:XXXX:XXXXXXX:AUST:D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 7 - Company 2 - Approver 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z:XXXX:XXXXXXX:CHEN:D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 8 - Company 2 - Regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approver1@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approver2@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approver3@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approver4@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approver5@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approver42@company.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Single1Section1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approverSingleSection1@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Single1Section2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approverSingleSection2@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Single1Section3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approverSingleSection3@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approverF@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approverW@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approverX@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descriptor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approvers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM 002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company 3 Single 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 1 Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPP 002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company 3 Single 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 2 Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBD 002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company 3 Single 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 3 Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXX 002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company 3 Name 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company 3 Single 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paste Job Title Here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company 3 Name 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paste Roles Here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company 3 Name 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 6</t>
   </si>
 </sst>
 </file>
@@ -204,7 +322,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
   </numFmts>
   <fonts count="5">
@@ -237,7 +355,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,7 +371,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEBF1DE"/>
-        <bgColor rgb="FFD7E4BD"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFEBF1DE"/>
       </patternFill>
     </fill>
   </fills>
@@ -302,7 +432,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -344,6 +474,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,12 +519,12 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFEBF1DE"/>
+      <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFD7E4BD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -393,7 +535,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFD7E4BD"/>
+      <rgbColor rgb="FFEBF1DE"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -425,7 +567,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -433,17 +575,17 @@
       <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1023" min="5" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -456,9 +598,8 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -491,25 +632,23 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="42.4210526315789"/>
-    <col collapsed="false" hidden="false" max="10" min="5" style="1" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="10" min="5" style="1" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -733,7 +872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
@@ -765,7 +904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
@@ -814,22 +953,22 @@
     <tabColor rgb="FF000000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C65536"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="39.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.7732793522267"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="40.0607287449393"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>47</v>
       </c>
@@ -837,14 +976,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -853,7 +992,7 @@
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -862,7 +1001,7 @@
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
@@ -871,7 +1010,7 @@
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
@@ -880,7 +1019,7 @@
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>43</v>
       </c>
@@ -897,8 +1036,63 @@
         <v>54</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="approverSingleSection1@company2.com"/>
+    <hyperlink ref="B10" r:id="rId2" display="approverSingleSection2@company2.com"/>
+    <hyperlink ref="B11" r:id="rId3" display="approverSingleSection3@company2.com"/>
+    <hyperlink ref="B12" r:id="rId4" display="approverF@company2.com"/>
+    <hyperlink ref="B13" r:id="rId5" display="approverW@company2.com"/>
+    <hyperlink ref="B14" r:id="rId6" display="approverX@company2.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -907,4 +1101,148 @@
     <oddFooter>&amp;C&amp;"arial,Bold"HEXION CONFIDENTIAL - INTERNAL [GREEN]</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matrixCompany2.xlsx
+++ b/matrixCompany2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="976" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OnHoliday" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="104">
   <si>
     <t xml:space="preserve">Regular Approver</t>
   </si>
@@ -236,12 +236,48 @@
     <t xml:space="preserve">approverX@company2.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Single Approver 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover1@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover2@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover3@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover4@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover5@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover6@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Client</t>
   </si>
   <si>
-    <t xml:space="preserve">Descriptor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Client Name</t>
   </si>
   <si>
@@ -251,70 +287,64 @@
     <t xml:space="preserve">Role Text</t>
   </si>
   <si>
+    <t xml:space="preserve">COM </t>
+  </si>
+  <si>
     <t xml:space="preserve">COM 002</t>
   </si>
   <si>
-    <t xml:space="preserve">Company 3 Single 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Approver 1</t>
+    <t xml:space="preserve">Company 2 Single 1</t>
   </si>
   <si>
     <t xml:space="preserve">Section 1 Roles</t>
   </si>
   <si>
+    <t xml:space="preserve">CPP</t>
+  </si>
+  <si>
     <t xml:space="preserve">CPP 002</t>
   </si>
   <si>
-    <t xml:space="preserve">Company 3 Single 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Approver 2</t>
+    <t xml:space="preserve">Company 2 Single 2</t>
   </si>
   <si>
     <t xml:space="preserve">Section 2 Roles</t>
   </si>
   <si>
+    <t xml:space="preserve">FBD</t>
+  </si>
+  <si>
     <t xml:space="preserve">FBD 002</t>
   </si>
   <si>
-    <t xml:space="preserve">Company 3 Single 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Approver 3</t>
+    <t xml:space="preserve">Company 2 Single 3</t>
   </si>
   <si>
     <t xml:space="preserve">Section 3 Roles</t>
   </si>
   <si>
+    <t xml:space="preserve">XXX Company 2 Name 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">XXX 002</t>
   </si>
   <si>
-    <t xml:space="preserve">Company 3 Name 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company 3 Single 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Approver 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paste Job Title Here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company 3 Name 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Approver 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paste Roles Here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company 3 Name 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Approver 6</t>
+    <t xml:space="preserve">Company 2 Single 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paste Job Title Here 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXX Company 2 Name 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paste Roles Here 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXX Company 2 Name 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paste Roles Here 3</t>
   </si>
 </sst>
 </file>
@@ -577,9 +607,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1023" min="5" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
@@ -640,11 +670,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="5" style="1" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="10" min="5" style="1" width="38.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -953,18 +983,18 @@
     <tabColor rgb="FF000000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.7732793522267"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="40.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="54.2024291497976"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="40.3846153846154"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1036,7 +1066,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -1044,55 +1074,95 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="approverSingleSection1@company2.com"/>
-    <hyperlink ref="B10" r:id="rId2" display="approverSingleSection2@company2.com"/>
-    <hyperlink ref="B11" r:id="rId3" display="approverSingleSection3@company2.com"/>
-    <hyperlink ref="B12" r:id="rId4" display="approverF@company2.com"/>
-    <hyperlink ref="B13" r:id="rId5" display="approverW@company2.com"/>
-    <hyperlink ref="B14" r:id="rId6" display="approverX@company2.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1111,129 +1181,138 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.4534412955466"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>76</v>
+        <v>88</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>89</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>80</v>
+        <v>92</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
